--- a/input_cancer/RNAvolume.xlsx
+++ b/input_cancer/RNAvolume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plateau/Documents/GitHub/PanoramiR/input_cancer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED47B9E4-D6A4-BC42-9579-1E34698E4C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF8749D-FC7B-CE48-9F03-C65B329C983D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3400" yWindow="2300" windowWidth="26840" windowHeight="15620" xr2:uid="{21F828FD-9FB1-3648-BBEB-1875B7C1153E}"/>
   </bookViews>
@@ -37,10 +37,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>RNA input volume</t>
+    <t>sample</t>
   </si>
   <si>
-    <t>sample</t>
+    <t>volume</t>
   </si>
 </sst>
 </file>
@@ -395,17 +395,17 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="A8:B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
